--- a/Testdata/TC_91.xlsx
+++ b/Testdata/TC_91.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ADEAAB+LCAAAAAAAAAPtW1tvG8cV/isLPbVAqb2IpCh3vIFISgoRSjJEKrLyYgx3h9JWy1l2L5L45jwEBly7QFHHQNI2rQMUDQI09kNauHbQ/pfAlJ2n/oWeueyVpC26TmADNAyYc25z5syZc75ZjNF75wNXOSV+4Hj06pK+rC0phFqe7dCjq0tR2C/p1aX3TLRxbhH3GvbxgIQgrIAWDa6cB87VpeMwHF5R1bOzs+WzlWXPP1INTdPV69vtjnVMBrjk0CDE1CJLiZb9aq0lEzXswTYJsY1DLDSvLrU6reUGcawm0LYxxUfEX65HgUNJEGzQ0AkdEjBNn+CQNJrbH4qFmcZydVlH6gQ9laxHjmsLuZykoEs5mJZ0nQExDU2vlXSjpK12de1K2bhSqS7XyuWPYsVEELVxEHaIf+pYnNAJ8WDI1XVDW9W1slGpInWqENhKA2CiXdfeI6dOQOwGcd1groiocgPXrRBWPV8wNaRmdKWh13dhy8fD464TumRe9U3PJxYE6rXm3iFnu76MX3fYBm732PHDUROP5ra1HxB/d8iiMZ+qiZoeDddd4of7Q9hUYsOeA8MM/YggdQYzVWo6gQW/HRoR2+xjN8gq5ZjowPNPgiG2yA4cWJXZOKOuh23IrNAJQsdKJ51goGu+NwSLMHndc+1NsCqFpzASyy0KIWbT1j3vJPVuGhPxHODZAHs6wGEsPkFHnWPvbJe6o07UCyzf6RG7WY+lp/IQO3lSuxEFoTcAL1ISErQMZQR/4KQVyahJLGeA3WsuBDEwV8BKjoDWo9DrO2HDc6MBDWKfClR0ACvqkvNkhckY7cLmUhZ0j7ZowcpUXl5jzzuLt3CSzoOQIa8HVrIjk5yidBNoMjkmGXxH2Co3HRcaQXYvMtR8VnSOCQmnpoTgIFbzNllrMeujnWjQg+PVgzN2ymcNkJryEeQp5Dr4ZWrQLkr8b1fTrvC/4EfCRhvUni0XMxFMl5nL1IFXICFYk1t3MT0B6oETHu+sx2uZwkEiAjPlJ3kITu7QxSNOTqKUpaEWtdzIJqIgtGifpyjzTUrP5KMJUhsOuYkwHXVHQ1YY1BkSTdLHkQtNKYSScpRkZpGM1oOTokyWhPZ9N95xk7X8AHq+ZQ+WLSiWrK8tW96AEVRotQcdpGblWcW3yAY9amN6FEFNTeJYpCf5xupB18c0YMtJSmgh9aYLoXhfRGk3s1uA1AITdclg6PnY3YZoOJsR5c1RNgUI6zYOj+UIzq9LrDiyaqqaaOXdib19lRg/icJ3VuTlkS0QuRDLdAEpUpmUhlgebns2NHXsOj0/l1lTebBLaQeMc4wtbs5uGAceYCWUmA/IiGGNdCDpLFFNPWbwEWqAS2Znr1wzKtoq4Cc+RnzFH2I3Isq6bRNbcajSojaUdh9KvIiH3NWXi2aF0KZPfh0BJB7xSdbBkzwlLwDl8sih2J0UTDipgnlIsO+OMoJiEW3PArkXD+48e/z5+Msvxrf/Mr75nViBYKEu7rmET9+t12raShnyJSEhebahXduRFXLa4SFv38kYSbjJB42NVmOrXefFICHG6gwZRCyn23jkRemwI1zmE/GtUeMdFSJmNy4ucpzjNgnr2eIwMWR5SvLSWf4sRRGL50//9vzp32dqy4CljUFfq5U5dH9F34DrSHVCLukbDLELnBbfB8olrVIyjIxwQQbtwbUGYFkSp5ZtrujammZUNT0pxHaSo9OEiixpqYuP1IKeIDW8iEJKJymQHcdMnuZdEoQJWyR+ZiCCePGP37x4+GlOSkZXUvJWwDkv8kU2qfGAm97Z6yqd3f29xobS3eiwPEl5GTlh/CXCcvbk9OSSitIIu7+Ayyy7yipLAN+WFK+vEGwdKyM4d5lTl0u2aVQx0WuaLHq55XvRUOxIRiGlTpFMasdUjSmVhfN4PCdKTMqaIi58Hf/r22kKciEyzfapE5rtD/aUAU3yktNQjiNIGb48tZ/9+9njWxf3H/5w6874k0fjuw/Gd7+8eHgvZ0pOmFxmIOHhWGWHSf5D7ZMNpEBBBx0e1RPtRqZhSCKDf9c8h4aBaaxw5CdHCFR1Zo3/i1oD6GHcMA8c0AsU9D4ONs5DecLNHaTmCeDnEEP79FLEnBBEMU8D/MOfvrj4w7cX9x+9uPX1+PZX4zv3nz/984tvHojjd/Hpo4u738hyX+wI3BeGwwWUU/itzlLYsVRYM1a+v/l7hXqhAhhCiXhp+v7mZxljzFGONlLLAMwSR/IuTIhmlZmeknEl8SGnl6iIjt5gvWwlkZDdzBs6VjrJRyVmih1AzvhZq1uKAqJ4AI9+DivJC6fKl9WTKqK3XlvVDN2QXOENW0IPB5nQb7leD7tKzODXpoJITuvlCqksn2+rvVtfb6ciwold34ZblsbufuwHijEi6y2tIB4l14OUAlxAclbkspvuhNgkK7GcqWeqvDH2ATlBOKdfsHIScOv2fYGDqPzU2ImGgG7jDwuz+fxjSwbQ7gjwmYW46bjVzPNhnOFCR8yzGYHzeY2SLFGvWgG7nQp8usNCkw6Bl/tAA+GQXxMF5Dp1YEtUVnc2fN/zpxaflBOLbQM0hoqiphFPZPieChhtp3sVE+KC96bgdKWSg9Nb3mmo7JFTQgEql5QuPld+yZCyA8uEZgg/4QJHpqHry2q+HWD74t5/xk/+eHHvn+NP/lp6/tVvx7cf/Pe7z589/vrZkyeCusDfbwp/r9Uuh791/afB3/rqJfC3EFrg7wX+fpvw9952fQb+jjkvxd+suD363fjxx/8n7NZnw279RqaxTMJuvbyA3QvY/U7Bbn0Bu98V2F0oPm8x7F7VZ8LuV4HrtxFCL8DymwLLFe2SYNn4icBy7TJgubYAywuwvADLU8GyMRssGzcy7WASLFcX36gXYPndAsvGAiy/K2C5UHx+FLCspo9FkrroNYlLwrmfg8ba297pa+vC3s+r2gp2XVsGc773LklYUgPZN7EsUeZ1Zt33AUKxR3RzP2JtO/SkNd/qTdI3ejW9uqatWLbdJ2t6layWYVTp233bsgBEcqPs+RMzMQCczR4PzTcJJF9ePX3dtYfp0ZzWRIC5InsMBZGSL2I3HT8Ir7M2KX8JymFCORS4+TrAZYGOrwvCIXsMKn7Il9HSuppzMy4ooXgv7bltZ+DM+UJKi6tO3gjs+3AogOW8OwgNb4ecA+zNWIBS3fsVNDN2EZvPmjhGUOETffZWMXCOjsN5HdMMjaxa1kqpQnpGqbxSWSvVqka51Ld0TNaMql6pldlDR2kc6plDzuacRI03LP1/DOb/AOrtbZsAMQAA</t>
+          <t>QTIAAB+LCAAAAAAAAAPtW1tvG8cV/isLPbVAqb2Qoil1vIF4kUqEukCkIisvxnB3KG213GX3Iolv7kNgwLULFHUMJG3TOkDRIEBjP6SFawftfwlM2XnqX+iZy15J2lrFDRSAggBxzm3OnDlzzjfECL13PrSlU+L5luvcXFKXlSWJOIZrWs7RzaUwGJTU6tJ7OmqdG8TexR4ekgCEJdBy/LVz37q5dBwEozVZPjs7Wz4rL7vekawpiirf2up0jWMyxCXL8QPsGGQp1jLfrrWko4Y53CIBNnGAuebNpXa3vdwgltEE2hZ28BHxluuhbznE91tOYAUW8ammR3BAGs2tD/jCdG25uqwieYqeSNZDyza5XEaS04UcTEt61pDomqIpJaVW0pSeemOtXFurqMsVVf0wUowFUQf7QZd4p5bBCN0AD0dMXalpinqjXKvAbDOFwFYSAB3t2OYeObV8YjaIbfuFIiKLDVw3Alh1sWAqSE7pCkNXd2HTw6PjnhXYpKj6husRAwJ1pbm3ydmOJ+LXG3WA2zu2vGDcxOPCtvZ94u2MaDSKqeqo6TrBuk28YH8Em0pM2HNg6IEXEiTPYSZKTcs34LPlhMTUB9j200oZJjpwvRN/hA2yDQdWpjbOHNvFJmRWYPmBZSSTTjHQrueOwCJMXndtcwOsCuEZjNhy24EQ02nrrnuSeDeLiVgOsGyAPR3iIBKfoqPusXu249jjbtj3Dc/qE7NZj6Rn8hA9eUK7EfqBOwQvEhLitBRlDD9w0vJk1CSGNcT2rg1B9PUyWMkQ0HoYuAMraLh2OHT8yKccFR3AinrkPF5hPEY7sLkODbrrtJ2clZm8rMaeexZt4TSdBSFFXveNeEemOXnpJtBEckwz2I7QVW5YNjSC9F6kqNms6B4TEsxMCc5BtOZt0Nai18fb4bAPx6sPZ+yUzeojOeEjyFPIdfBLV6BdlNhvT1HW2C/4EbNRyzHny0VMBNOl5tJV4OVICNZk123snAD1wAqOt9ejtczgIB6BufLTPAQnd2TjMSPHUUrTUNsx7NAkvCC0nQFLUeqbkJ7LR1OkDhxyWg/IAIc29JwAKsZRnHh5Mlr3T/IyaRLa9+xoQ3Xa0X1o6YY5XDagFtK2tWy4Q0qQoZMedJGclqcF3SAt56iDnaMQSmYcpjw9Tid63Hsedny6nrhC5jJrthCKws4rt56OMJJzTNQjw5HrYXsLomFthA7rfaLmQ/i2cHAsRnA8bWKkQhupxlpZdyJv3ybGDhr3ndZwcSJzRCZEE5kjhkQmoSGaZluuCT0b21bfyyTOTB7sUtLgohSiiyvY7KLAA2qECvI+GVMokQwEvTceEV2NGGyEGuCS3t2r1LQVZWUFqjMdI7biTfc0kKCPE+hzUknq4XPp51LbMa1TywyxDR8h42BlPDxikwtppnXQhkd+FQIeHjMX1sHPLCUrALXyyHKwPS0YcxIF/ZBgzx6nBPkSO64BchcP/zN5/seLh/+cfPTX0qsvfju59/i/33z68tmXL58/51S+Ri6NerhvE+ZRr16rKeUKJFhMQjSqMuvrZmgEjHZ4yNp5PEYCfrJBo9VubHbqkEopYqROkUJID0EHj90wGXb5KthEbC/lKAW4iN5j9pJxhtsktIfz00eR5inJSqf58xR5LF69+NurF3+fqy0CljQKdXW1VlK1t/YRQOvqlFzcRyiC57hN3A/USklZKWlaSjgng/bgmgMwLY5T29TLqrIKtwJFjfwHWpTFs4TyLGGph4/knB4nNdzQCbxxnALpccRkmd8jfhCz+VlIDUSO/uM3r598nJES0RWUrBVwzg09nk1yNGCmt/d6Undnf6/RknqtLs2ThJeS48bfICxmjw9UJqkcB075z+ByS6+20hLAuSXJHUgEG8fSGI5i6iBmkm0WlU90RZN5Lzc9NxzxHUkpJNQZknE5makxo9gwHovnVNVJWDPEua+Tf309S0EsRKTZvmMF+t5WXRo6cV4yGspwOCnFF6f2k3+/fHaXFrenv5s8+3XGgpgnvtNAnsNpSg/jtIeSJxpNjoIOuiyYJ8rtVGMRRIoCd13LCXxdrTAAKEYIVFVqjf1F7SH0OmaYxQvoOQr6BfZb54E42Po2krME8HOEoc26CXCOCbyGJ3H97k+fXfzh64tHT1/f/XJy74vJ/UevXvz59VeP+am7+PjpxYOvRJXPNwLmC4XjHPNJ7HJnSPQ0SrRpS9/e+b3kuIEEWEMKWUX69s4nKWPUUYZKEssA4GJHsi5MiaaVqZ6UciX2IaMXq/DO36AtrBxLiCbmjiwjmeTDEjVFzx1j/KTdK4U+kVyAUT+FlWSFE+XL6gkV3lJ3byiaqgku94YuoY/9VOg3bbcPMCJisNtTTiSj9WaFRJbNt9nZqa93EhHuxI5nwmVLoVdA+gG1/QhNxjeDhAJcQHlGaNNL7pTYNAtFn1KlSxaXxcG6SUve7LtVRgIu3J7HUZAjvmXshiNAvtF3CvP57HuWFNjd5sA0DX+TcbuZ5cM4xYXml2VTAuOzciRYvDS1fXox5dh1m4YmGQIv890MhEN8kcjRFSBJ4sm01rQ8z/VmFpyEE4ltAWyGKiInEY9lZDolh9hmslcRISpy7wpq31DnQu23AerrCJsXAPldAeQV5ZIAWfuBAHLtMgC5tgDIC4C8AMgzAbI6HyCrt1PtYBogV8sLgLwAyD8qgKwuAPJ1Bsi5gnOdAXI1A5A/wHZIJNhHYkqWQ79LDn1o47Ow8lzR6wGbXz++//LZp5PPP5vc+8vkzjcL5PyukHOtcjnkrFR/GOSsVS+BnLnQAjkvkPN1Qs6d9/fmIOeI80bkfPHoyXd3708+ejp58Hjy4POLJw+/J4TW5kNo7XaqYUxDaG0BoRcQ+scFobUFhL7OEDpXcP4vEFpOHoLEtdBtEpsEhV9yRtpb7umVdWHvi6q2/R3bFMEs9pYlDktiIP2clSZKUWfWPQ/wE33/Vvj9acdyTtrFVq9XK5hUq9VKuaKtqCsrtRXNJAOjOoC/BjYHgCCZUfq0iZoYAsimD4OKTQKoMauevNzaw85RQWs8wEyRPnSCSLEDKQp7PEYblucHt2inFJ845TCmHHIMfQugM0fKtzjhkD7r5B/EG2cxmZzxOqovAX/57Noda2gVfAylREUoawTSYDTiILPohkLP2ybnAIFTFqBa938J/YxeyopZ46cKinysH9nqhv3C5uRIeRf4NLGupt0yAZddXZu9I7bs7+EAQ15XNdF2fOvoOCi6r9rqaplUiVbSBoZRqsCgBN24XzLxYFVVlEHZXNHoi09hHLqDRc4KTkJ7iuXDBaO4npz7RxD9fwo3E8pBMgAA</t>
         </r>
       </text>
     </comment>
@@ -490,192 +490,247 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Value Added in Industry</t>
+          <t>Govt Revenue - Tax ; Individual Income</t>
         </is>
       </c>
       <c r="B2" s="2">
-        <v>271978.25</v>
+        <v>1380.846666666666</v>
       </c>
       <c r="C2" s="2">
-        <v>1904609457.583333</v>
+        <v>168261.067525</v>
       </c>
       <c r="D2" s="2">
-        <v>43641.83151041364</v>
+        <v>410.1963767819018</v>
       </c>
       <c r="E2" s="2">
-        <v>0.035788125054025</v>
+        <v>-0.1689225813856177</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.7011072335070594</v>
+        <v>-0.613381629666371</v>
       </c>
       <c r="G2" s="2">
-        <v>0.1604607409247381</v>
+        <v>0.2970614961703945</v>
       </c>
       <c r="H2" s="2">
-        <v>221016</v>
+        <v>727.63</v>
       </c>
       <c r="I2" s="2">
-        <v>323560</v>
+        <v>2026.83</v>
       </c>
       <c r="J2" s="2">
-        <v>271668.5</v>
+        <v>1482.71</v>
       </c>
       <c r="K2" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="M2" s="4">
+        <v>1667.1</v>
+      </c>
+      <c r="N2" s="4">
+        <v>2026.83</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1639.54</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1598.61</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1482.71</v>
+      </c>
       <c r="R2" s="4">
-        <v>323560</v>
+        <v>1235.8</v>
       </c>
       <c r="S2" s="4">
-        <v>286765</v>
+        <v>1126.49</v>
       </c>
       <c r="T2" s="4">
-        <v>256572</v>
+        <v>922.91</v>
       </c>
       <c r="U2" s="4">
-        <v>221016</v>
+        <v>727.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>Govt Revenue</t>
         </is>
       </c>
       <c r="B3" s="2">
-        <v>1380.846666666666</v>
+        <v>4951998.2</v>
       </c>
       <c r="C3" s="2">
-        <v>168261.067525</v>
+        <v>8870140225312.178</v>
       </c>
       <c r="D3" s="2">
-        <v>410.1963767819018</v>
+        <v>2978278.063799983</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.1689225813856176</v>
+        <v>0.5088159326089573</v>
       </c>
       <c r="F3" s="2">
-        <v>-0.613381629666371</v>
+        <v>-0.4977563153662574</v>
       </c>
       <c r="G3" s="2">
-        <v>0.2970614961703945</v>
+        <v>0.6014295529832752</v>
       </c>
       <c r="H3" s="2">
-        <v>727.63</v>
+        <v>866666</v>
       </c>
       <c r="I3" s="2">
-        <v>2026.83</v>
+        <v>10374001</v>
       </c>
       <c r="J3" s="2">
-        <v>1482.71</v>
+        <v>4504099</v>
       </c>
       <c r="K3" s="2">
-        <v>9</v>
-      </c>
-      <c r="L3" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="L3" s="4">
+        <v>866666</v>
+      </c>
       <c r="M3" s="4">
-        <v>1667.1</v>
+        <v>10374001</v>
       </c>
       <c r="N3" s="4">
-        <v>2026.83</v>
+        <v>8310151</v>
       </c>
       <c r="O3" s="4">
-        <v>1639.54</v>
+        <v>6851830</v>
       </c>
       <c r="P3" s="4">
-        <v>1598.61</v>
+        <v>6133035</v>
       </c>
       <c r="Q3" s="4">
-        <v>1482.71</v>
+        <v>5132178</v>
       </c>
       <c r="R3" s="4">
-        <v>1235.8</v>
+        <v>3876020</v>
       </c>
       <c r="S3" s="4">
-        <v>1126.49</v>
+        <v>3164929</v>
       </c>
       <c r="T3" s="4">
-        <v>922.91</v>
+        <v>2639647</v>
       </c>
       <c r="U3" s="4">
-        <v>727.63</v>
+        <v>2171525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue</t>
+          <t>Value Added in Industry</t>
         </is>
       </c>
       <c r="B4" s="2">
-        <v>4951998.2</v>
+        <v>271978.25</v>
       </c>
       <c r="C4" s="2">
-        <v>8870140225312.178</v>
+        <v>1904609457.583333</v>
       </c>
       <c r="D4" s="2">
-        <v>2978278.063799983</v>
+        <v>43641.83151041364</v>
       </c>
       <c r="E4" s="2">
-        <v>0.5088159326089575</v>
+        <v>0.035788125054025</v>
       </c>
       <c r="F4" s="2">
-        <v>-0.497756315366257</v>
+        <v>-0.7011072335070612</v>
       </c>
       <c r="G4" s="2">
-        <v>0.6014295529832752</v>
+        <v>0.1604607409247381</v>
       </c>
       <c r="H4" s="2">
-        <v>866666</v>
+        <v>221016</v>
       </c>
       <c r="I4" s="2">
-        <v>10374001</v>
+        <v>323560</v>
       </c>
       <c r="J4" s="2">
-        <v>4504099</v>
+        <v>271668.5</v>
       </c>
       <c r="K4" s="2">
-        <v>10</v>
-      </c>
-      <c r="L4" s="4">
-        <v>866666</v>
-      </c>
-      <c r="M4" s="4">
-        <v>10374001</v>
-      </c>
-      <c r="N4" s="4">
-        <v>8310151</v>
-      </c>
-      <c r="O4" s="4">
-        <v>6851830</v>
-      </c>
-      <c r="P4" s="4">
-        <v>6133035</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>5132178</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="4">
-        <v>3876020</v>
+        <v>323560</v>
       </c>
       <c r="S4" s="4">
-        <v>3164929</v>
+        <v>286765</v>
       </c>
       <c r="T4" s="4">
-        <v>2639647</v>
+        <v>256572</v>
       </c>
       <c r="U4" s="4">
-        <v>2171525</v>
+        <v>221016</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>2</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>2</EndRow>
+          <EndCol>21</EndCol>
+          <Name>Govt Revenue - Tax ; Individual Income</Name>
+          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
+          <SeriesId>310901701</SeriesId>
+          <Code>SR4825055</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>3</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>3</EndRow>
+          <EndCol>21</EndCol>
+          <Name>Govt Revenue</Name>
+          <DisplayName>Govt Revenue</DisplayName>
+          <SeriesId>310901801</SeriesId>
+          <Code>SR4825071</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>4</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>4</EndRow>
+          <EndCol>21</EndCol>
+          <Name>Value Added in Industry</Name>
+          <DisplayName>Value Added in Industry</DisplayName>
+          <SeriesId>310902601</SeriesId>
+          <Code>SR4825076</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB9AD9FE-FECF-40C8-B3F5-20F4AA154837}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_91.xlsx
+++ b/Testdata/TC_91.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>QTIAAB+LCAAAAAAAAAPtW1tvG8cV/isLPbVAqb2Qoil1vIF4kUqEukCkIisvxnB3KG213GX3Iolv7kNgwLULFHUMJG3TOkDRIEBjP6SFawftfwlM2XnqX+iZy15J2lrFDRSAggBxzm3OnDlzzjfECL13PrSlU+L5luvcXFKXlSWJOIZrWs7RzaUwGJTU6tJ7OmqdG8TexR4ekgCEJdBy/LVz37q5dBwEozVZPjs7Wz4rL7vekawpiirf2up0jWMyxCXL8QPsGGQp1jLfrrWko4Y53CIBNnGAuebNpXa3vdwgltEE2hZ28BHxluuhbznE91tOYAUW8ammR3BAGs2tD/jCdG25uqwieYqeSNZDyza5XEaS04UcTEt61pDomqIpJaVW0pSeemOtXFurqMsVVf0wUowFUQf7QZd4p5bBCN0AD0dMXalpinqjXKvAbDOFwFYSAB3t2OYeObV8YjaIbfuFIiKLDVw3Alh1sWAqSE7pCkNXd2HTw6PjnhXYpKj6husRAwJ1pbm3ydmOJ+LXG3WA2zu2vGDcxOPCtvZ94u2MaDSKqeqo6TrBuk28YH8Em0pM2HNg6IEXEiTPYSZKTcs34LPlhMTUB9j200oZJjpwvRN/hA2yDQdWpjbOHNvFJmRWYPmBZSSTTjHQrueOwCJMXndtcwOsCuEZjNhy24EQ02nrrnuSeDeLiVgOsGyAPR3iIBKfoqPusXu249jjbtj3Dc/qE7NZj6Rn8hA9eUK7EfqBOwQvEhLitBRlDD9w0vJk1CSGNcT2rg1B9PUyWMkQ0HoYuAMraLh2OHT8yKccFR3AinrkPF5hPEY7sLkODbrrtJ2clZm8rMaeexZt4TSdBSFFXveNeEemOXnpJtBEckwz2I7QVW5YNjSC9F6kqNms6B4TEsxMCc5BtOZt0Nai18fb4bAPx6sPZ+yUzeojOeEjyFPIdfBLV6BdlNhvT1HW2C/4EbNRyzHny0VMBNOl5tJV4OVICNZk123snAD1wAqOt9ejtczgIB6BufLTPAQnd2TjMSPHUUrTUNsx7NAkvCC0nQFLUeqbkJ7LR1OkDhxyWg/IAIc29JwAKsZRnHh5Mlr3T/IyaRLa9+xoQ3Xa0X1o6YY5XDagFtK2tWy4Q0qQoZMedJGclqcF3SAt56iDnaMQSmYcpjw9Tid63Hsedny6nrhC5jJrthCKws4rt56OMJJzTNQjw5HrYXsLomFthA7rfaLmQ/i2cHAsRnA8bWKkQhupxlpZdyJv3ybGDhr3ndZwcSJzRCZEE5kjhkQmoSGaZluuCT0b21bfyyTOTB7sUtLgohSiiyvY7KLAA2qECvI+GVMokQwEvTceEV2NGGyEGuCS3t2r1LQVZWUFqjMdI7biTfc0kKCPE+hzUknq4XPp51LbMa1TywyxDR8h42BlPDxikwtppnXQhkd+FQIeHjMX1sHPLCUrALXyyHKwPS0YcxIF/ZBgzx6nBPkSO64BchcP/zN5/seLh/+cfPTX0qsvfju59/i/33z68tmXL58/51S+Ri6NerhvE+ZRr16rKeUKJFhMQjSqMuvrZmgEjHZ4yNp5PEYCfrJBo9VubHbqkEopYqROkUJID0EHj90wGXb5KthEbC/lKAW4iN5j9pJxhtsktIfz00eR5inJSqf58xR5LF69+NurF3+fqy0CljQKdXW1VlK1t/YRQOvqlFzcRyiC57hN3A/USklZKWlaSjgng/bgmgMwLY5T29TLqrIKtwJFjfwHWpTFs4TyLGGph4/knB4nNdzQCbxxnALpccRkmd8jfhCz+VlIDUSO/uM3r598nJES0RWUrBVwzg09nk1yNGCmt/d6Undnf6/RknqtLs2ThJeS48bfICxmjw9UJqkcB075z+ByS6+20hLAuSXJHUgEG8fSGI5i6iBmkm0WlU90RZN5Lzc9NxzxHUkpJNQZknE5makxo9gwHovnVNVJWDPEua+Tf309S0EsRKTZvmMF+t5WXRo6cV4yGspwOCnFF6f2k3+/fHaXFrenv5s8+3XGgpgnvtNAnsNpSg/jtIeSJxpNjoIOuiyYJ8rtVGMRRIoCd13LCXxdrTAAKEYIVFVqjf1F7SH0OmaYxQvoOQr6BfZb54E42Po2krME8HOEoc26CXCOCbyGJ3H97k+fXfzh64tHT1/f/XJy74vJ/UevXvz59VeP+am7+PjpxYOvRJXPNwLmC4XjHPNJ7HJnSPQ0SrRpS9/e+b3kuIEEWEMKWUX69s4nKWPUUYZKEssA4GJHsi5MiaaVqZ6UciX2IaMXq/DO36AtrBxLiCbmjiwjmeTDEjVFzx1j/KTdK4U+kVyAUT+FlWSFE+XL6gkV3lJ3byiaqgku94YuoY/9VOg3bbcPMCJisNtTTiSj9WaFRJbNt9nZqa93EhHuxI5nwmVLoVdA+gG1/QhNxjeDhAJcQHlGaNNL7pTYNAtFn1KlSxaXxcG6SUve7LtVRgIu3J7HUZAjvmXshiNAvtF3CvP57HuWFNjd5sA0DX+TcbuZ5cM4xYXml2VTAuOzciRYvDS1fXox5dh1m4YmGQIv890MhEN8kcjRFSBJ4sm01rQ8z/VmFpyEE4ltAWyGKiInEY9lZDolh9hmslcRISpy7wpq31DnQu23AerrCJsXAPldAeQV5ZIAWfuBAHLtMgC5tgDIC4C8AMgzAbI6HyCrt1PtYBogV8sLgLwAyD8qgKwuAPJ1Bsi5gnOdAXI1A5A/wHZIJNhHYkqWQ79LDn1o47Ow8lzR6wGbXz++//LZp5PPP5vc+8vkzjcL5PyukHOtcjnkrFR/GOSsVS+BnLnQAjkvkPN1Qs6d9/fmIOeI80bkfPHoyXd3708+ejp58Hjy4POLJw+/J4TW5kNo7XaqYUxDaG0BoRcQ+scFobUFhL7OEDpXcP4vEFpOHoLEtdBtEpsEhV9yRtpb7umVdWHvi6q2/R3bFMEs9pYlDktiIP2clSZKUWfWPQ/wE33/Vvj9acdyTtrFVq9XK5hUq9VKuaKtqCsrtRXNJAOjOoC/BjYHgCCZUfq0iZoYAsimD4OKTQKoMauevNzaw85RQWs8wEyRPnSCSLEDKQp7PEYblucHt2inFJ845TCmHHIMfQugM0fKtzjhkD7r5B/EG2cxmZzxOqovAX/57Noda2gVfAylREUoawTSYDTiILPohkLP2ybnAIFTFqBa938J/YxeyopZ46cKinysH9nqhv3C5uRIeRf4NLGupt0yAZddXZu9I7bs7+EAQ15XNdF2fOvoOCi6r9rqaplUiVbSBoZRqsCgBN24XzLxYFVVlEHZXNHoi09hHLqDRc4KTkJ7iuXDBaO4npz7RxD9fwo3E8pBMgAA</t>
+          <t>ADEAAB+LCAAAAAAAAAPtW1tvG8cV/isLPbVAqb2IpCh3vIFISgoRSjJEKrLyYgx3h9JWy1l2L5L45jwEBly7QFHHQNI2rQMUDQI09kNauHbQ/pfAlJ2n/oWeueyVpC26TmADNAyYc25z5syZc75ZjNF75wNXOSV+4Hj06pK+rC0phFqe7dCjq0tR2C/p1aX3TLRxbhH3GvbxgIQgrIAWDa6cB87VpeMwHF5R1bOzs+WzlWXPP1INTdPV69vtjnVMBrjk0CDE1CJLiZb9aq0lEzXswTYJsY1DLDSvLrU6reUGcawm0LYxxUfEX65HgUNJEGzQ0AkdEjBNn+CQNJrbH4qFmcZydVlH6gQ9laxHjmsLuZykoEs5mJZ0nQExDU2vlXSjpK12de1K2bhSqS7XyuWPYsVEELVxEHaIf+pYnNAJ8WDI1XVDW9W1slGpInWqENhKA2CiXdfeI6dOQOwGcd1groiocgPXrRBWPV8wNaRmdKWh13dhy8fD464TumRe9U3PJxYE6rXm3iFnu76MX3fYBm732PHDUROP5ra1HxB/d8iiMZ+qiZoeDddd4of7Q9hUYsOeA8MM/YggdQYzVWo6gQW/HRoR2+xjN8gq5ZjowPNPgiG2yA4cWJXZOKOuh23IrNAJQsdKJ51goGu+NwSLMHndc+1NsCqFpzASyy0KIWbT1j3vJPVuGhPxHODZAHs6wGEsPkFHnWPvbJe6o07UCyzf6RG7WY+lp/IQO3lSuxEFoTcAL1ISErQMZQR/4KQVyahJLGeA3WsuBDEwV8BKjoDWo9DrO2HDc6MBDWKfClR0ACvqkvNkhckY7cLmUhZ0j7ZowcpUXl5jzzuLt3CSzoOQIa8HVrIjk5yidBNoMjkmGXxH2Co3HRcaQXYvMtR8VnSOCQmnpoTgIFbzNllrMeujnWjQg+PVgzN2ymcNkJryEeQp5Dr4ZWrQLkr8b1fTrvC/4EfCRhvUni0XMxFMl5nL1IFXICFYk1t3MT0B6oETHu+sx2uZwkEiAjPlJ3kITu7QxSNOTqKUpaEWtdzIJqIgtGifpyjzTUrP5KMJUhsOuYkwHXVHQ1YY1BkSTdLHkQtNKYSScpRkZpGM1oOTokyWhPZ9N95xk7X8AHq+ZQ+WLSiWrK8tW96AEVRotQcdpGblWcW3yAY9amN6FEFNTeJYpCf5xupB18c0YMtJSmgh9aYLoXhfRGk3s1uA1AITdclg6PnY3YZoOJsR5c1RNgUI6zYOj+UIzq9LrDiyaqqaaOXdib19lRg/icJ3VuTlkS0QuRDLdAEpUpmUhlgebns2NHXsOj0/l1lTebBLaQeMc4wtbs5uGAceYCWUmA/IiGGNdCDpLFFNPWbwEWqAS2Znr1wzKtoq4Cc+RnzFH2I3Isq6bRNbcajSojaUdh9KvIiH3NWXi2aF0KZPfh0BJB7xSdbBkzwlLwDl8sih2J0UTDipgnlIsO+OMoJiEW3PArkXD+48e/z5+Msvxrf/Mr75nViBYKEu7rmET9+t12raShnyJSEhebahXduRFXLa4SFv38kYSbjJB42NVmOrXefFICHG6gwZRCyn23jkRemwI1zmE/GtUeMdFSJmNy4ucpzjNgnr2eIwMWR5SvLSWf4sRRGL50//9vzp32dqy4CljUFfq5U5dH9F34DrSHVCLukbDLELnBbfB8olrVIyjIxwQQbtwbUGYFkSp5ZtrujammZUNT0pxHaSo9OEiixpqYuP1IKeIDW8iEJKJymQHcdMnuZdEoQJWyR+ZiCCePGP37x4+GlOSkZXUvJWwDkv8kU2qfGAm97Z6yqd3f29xobS3eiwPEl5GTlh/CXCcvbk9OSSitIIu7+Ayyy7yipLAN+WFK+vEGwdKyM4d5lTl0u2aVQx0WuaLHq55XvRUOxIRiGlTpFMasdUjSmVhfN4PCdKTMqaIi58Hf/r22kKciEyzfapE5rtD/aUAU3yktNQjiNIGb48tZ/9+9njWxf3H/5w6874k0fjuw/Gd7+8eHgvZ0pOmFxmIOHhWGWHSf5D7ZMNpEBBBx0e1RPtRqZhSCKDf9c8h4aBaaxw5CdHCFR1Zo3/i1oD6GHcMA8c0AsU9D4ONs5DecLNHaTmCeDnEEP79FLEnBBEMU8D/MOfvrj4w7cX9x+9uPX1+PZX4zv3nz/984tvHojjd/Hpo4u738hyX+wI3BeGwwWUU/itzlLYsVRYM1a+v/l7hXqhAhhCiXhp+v7mZxljzFGONlLLAMwSR/IuTIhmlZmeknEl8SGnl6iIjt5gvWwlkZDdzBs6VjrJRyVmih1AzvhZq1uKAqJ4AI9+DivJC6fKl9WTKqK3XlvVDN2QXOENW0IPB5nQb7leD7tKzODXpoJITuvlCqksn2+rvVtfb6ciwold34ZblsbufuwHijEi6y2tIB4l14OUAlxAclbkspvuhNgkK7GcqWeqvDH2ATlBOKdfsHIScOv2fYGDqPzU2ImGgG7jDwuz+fxjSwbQ7gjwmYW46bjVzPNhnOFCR8yzGYHzeY2SLFGvWgG7nQp8usNCkw6Bl/tAA+GQXxMF5Dp1YEtUVnc2fN/zpxaflBOLbQM0hoqiphFPZPieChhtp3sVE+KC96bgdKWSg9Nb3mmo7JFTQgEql5QuPld+yZCyA8uEZgg/4QJHpqHry2q+HWD74t5/xk/+eHHvn+NP/lp6/tVvx7cf/Pe7z589/vrZkyeCusDfbwp/r9Uuh791/afB3/rqJfC3EFrg7wX+fpvw9952fQb+jjkvxd+suD363fjxx/8n7NZnw279RqaxTMJuvbyA3QvY/U7Bbn0Bu98V2F0oPm8x7F7VZ8LuV4HrtxFCL8DymwLLFe2SYNn4icBy7TJgubYAywuwvADLU8GyMRssGzcy7WASLFcX36gXYPndAsvGAiy/K2C5UHx+FLCspo9FkrroNYlLwrmfg8ba297pa+vC3s+r2gp2XVsGc773LklYUgPZN7EsUeZ1Zt33AUKxR3RzP2JtO/SkNd/qTdI3ejW9uqatWLbdJ2t6layWYVTp233bsgBEcqPs+RMzMQCczR4PzTcJJF9ePX3dtYfp0ZzWRIC5InsMBZGSL2I3HT8Ir7M2KX8JymFCORS4+TrAZYGOrwvCIXsMKn7Il9HSuppzMy4ooXgv7bltZ+DM+UJKi6tO3gjs+3AogOW8OwgNb4ecA+zNWIBS3fsVNDN2EZvPmjhGUOETffZWMXCOjsN5HdMMjaxa1kqpQnpGqbxSWSvVqka51Ld0TNaMql6pldlDR2kc6plDzuacRI03LP1/DOb/AOrtbZsAMQAA</t>
         </r>
       </text>
     </comment>
@@ -490,247 +490,192 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>Value Added in Industry</t>
         </is>
       </c>
       <c r="B2" s="2">
-        <v>1380.846666666666</v>
+        <v>271978.25</v>
       </c>
       <c r="C2" s="2">
-        <v>168261.067525</v>
+        <v>1904609457.583333</v>
       </c>
       <c r="D2" s="2">
-        <v>410.1963767819018</v>
+        <v>43641.83151041364</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.1689225813856177</v>
+        <v>0.035788125054025</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.613381629666371</v>
+        <v>-0.7011072335070594</v>
       </c>
       <c r="G2" s="2">
-        <v>0.2970614961703945</v>
+        <v>0.1604607409247381</v>
       </c>
       <c r="H2" s="2">
-        <v>727.63</v>
+        <v>221016</v>
       </c>
       <c r="I2" s="2">
-        <v>2026.83</v>
+        <v>323560</v>
       </c>
       <c r="J2" s="2">
-        <v>1482.71</v>
+        <v>271668.5</v>
       </c>
       <c r="K2" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="4">
-        <v>1667.1</v>
-      </c>
-      <c r="N2" s="4">
-        <v>2026.83</v>
-      </c>
-      <c r="O2" s="4">
-        <v>1639.54</v>
-      </c>
-      <c r="P2" s="4">
-        <v>1598.61</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>1482.71</v>
-      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="4">
-        <v>1235.8</v>
+        <v>323560</v>
       </c>
       <c r="S2" s="4">
-        <v>1126.49</v>
+        <v>286765</v>
       </c>
       <c r="T2" s="4">
-        <v>922.91</v>
+        <v>256572</v>
       </c>
       <c r="U2" s="4">
-        <v>727.63</v>
+        <v>221016</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue</t>
+          <t>Govt Revenue - Tax ; Individual Income</t>
         </is>
       </c>
       <c r="B3" s="2">
-        <v>4951998.2</v>
+        <v>1380.846666666666</v>
       </c>
       <c r="C3" s="2">
-        <v>8870140225312.178</v>
+        <v>168261.067525</v>
       </c>
       <c r="D3" s="2">
-        <v>2978278.063799983</v>
+        <v>410.1963767819018</v>
       </c>
       <c r="E3" s="2">
-        <v>0.5088159326089573</v>
+        <v>-0.1689225813856176</v>
       </c>
       <c r="F3" s="2">
-        <v>-0.4977563153662574</v>
+        <v>-0.613381629666371</v>
       </c>
       <c r="G3" s="2">
-        <v>0.6014295529832752</v>
+        <v>0.2970614961703945</v>
       </c>
       <c r="H3" s="2">
-        <v>866666</v>
+        <v>727.63</v>
       </c>
       <c r="I3" s="2">
-        <v>10374001</v>
+        <v>2026.83</v>
       </c>
       <c r="J3" s="2">
-        <v>4504099</v>
+        <v>1482.71</v>
       </c>
       <c r="K3" s="2">
-        <v>10</v>
-      </c>
-      <c r="L3" s="4">
-        <v>866666</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="4">
-        <v>10374001</v>
+        <v>1667.1</v>
       </c>
       <c r="N3" s="4">
-        <v>8310151</v>
+        <v>2026.83</v>
       </c>
       <c r="O3" s="4">
-        <v>6851830</v>
+        <v>1639.54</v>
       </c>
       <c r="P3" s="4">
-        <v>6133035</v>
+        <v>1598.61</v>
       </c>
       <c r="Q3" s="4">
-        <v>5132178</v>
+        <v>1482.71</v>
       </c>
       <c r="R3" s="4">
-        <v>3876020</v>
+        <v>1235.8</v>
       </c>
       <c r="S3" s="4">
-        <v>3164929</v>
+        <v>1126.49</v>
       </c>
       <c r="T3" s="4">
-        <v>2639647</v>
+        <v>922.91</v>
       </c>
       <c r="U3" s="4">
-        <v>2171525</v>
+        <v>727.63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Value Added in Industry</t>
+          <t>Govt Revenue</t>
         </is>
       </c>
       <c r="B4" s="2">
-        <v>271978.25</v>
+        <v>4951998.2</v>
       </c>
       <c r="C4" s="2">
-        <v>1904609457.583333</v>
+        <v>8870140225312.178</v>
       </c>
       <c r="D4" s="2">
-        <v>43641.83151041364</v>
+        <v>2978278.063799983</v>
       </c>
       <c r="E4" s="2">
-        <v>0.035788125054025</v>
+        <v>0.5088159326089575</v>
       </c>
       <c r="F4" s="2">
-        <v>-0.7011072335070612</v>
+        <v>-0.497756315366257</v>
       </c>
       <c r="G4" s="2">
-        <v>0.1604607409247381</v>
+        <v>0.6014295529832752</v>
       </c>
       <c r="H4" s="2">
-        <v>221016</v>
+        <v>866666</v>
       </c>
       <c r="I4" s="2">
-        <v>323560</v>
+        <v>10374001</v>
       </c>
       <c r="J4" s="2">
-        <v>271668.5</v>
+        <v>4504099</v>
       </c>
       <c r="K4" s="2">
-        <v>4</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="L4" s="4">
+        <v>866666</v>
+      </c>
+      <c r="M4" s="4">
+        <v>10374001</v>
+      </c>
+      <c r="N4" s="4">
+        <v>8310151</v>
+      </c>
+      <c r="O4" s="4">
+        <v>6851830</v>
+      </c>
+      <c r="P4" s="4">
+        <v>6133035</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>5132178</v>
+      </c>
       <c r="R4" s="4">
-        <v>323560</v>
+        <v>3876020</v>
       </c>
       <c r="S4" s="4">
-        <v>286765</v>
+        <v>3164929</v>
       </c>
       <c r="T4" s="4">
-        <v>256572</v>
+        <v>2639647</v>
       </c>
       <c r="U4" s="4">
-        <v>221016</v>
+        <v>2171525</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>2</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>2</EndRow>
-          <EndCol>21</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>3</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>3</EndRow>
-          <EndCol>21</EndCol>
-          <Name>Govt Revenue</Name>
-          <DisplayName>Govt Revenue</DisplayName>
-          <SeriesId>310901801</SeriesId>
-          <Code>SR4825071</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>4</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>4</EndRow>
-          <EndCol>21</EndCol>
-          <Name>Value Added in Industry</Name>
-          <DisplayName>Value Added in Industry</DisplayName>
-          <SeriesId>310902601</SeriesId>
-          <Code>SR4825076</Code>
-          <Order>2</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB9AD9FE-FECF-40C8-B3F5-20F4AA154837}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>